--- a/biology/Botanique/Cèpe_des_pins_de_montagne/Cèpe_des_pins_de_montagne.xlsx
+++ b/biology/Botanique/Cèpe_des_pins_de_montagne/Cèpe_des_pins_de_montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins_de_montagne</t>
+          <t>Cèpe_des_pins_de_montagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cèpe des pins
 Boletus pinophilus, le Cèpe des pins ou Cèpe acajou, autrefois Boletus pinicola, est une espèce de champignons basidiomycètes appartenant au genre Boletus et classé dans la famille des Boletaceae. Il fait partie, avec Boletus aereus, Boletus edulis et Boletus reticulatus, des quatre espèces de bolets "nobles" ; les Cèpes, mais il en est sans doute le moins connu. Cet excellent comestible est caractérisé par son chapeau ridé de couleur bordeaux, sa tendance hygrophile et son affiliation aux conifères, notamment aux pins, bien qu'il puisse occasionnellement pousser aussi sous feuillus.
-Les études phylogénétiques démontrent qu'il s'agit d'une espèce bien individualisée qui est antérieure au clade des edulis stricto sensu, et qu'il est proche des espèces américaines Boletus rex-veris et Boletus fibrillosus[1].
+Les études phylogénétiques démontrent qu'il s'agit d'une espèce bien individualisée qui est antérieure au clade des edulis stricto sensu, et qu'il est proche des espèces américaines Boletus rex-veris et Boletus fibrillosus.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins_de_montagne</t>
+          <t>Cèpe_des_pins_de_montagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Boletus pinophilus Pilát &amp; Dermek (1973)[2]
-Synonymes
-Boletus pinicola (Vitt.) Venturi (1835)
-Boletus edulis f. pinicola (Vittad.) Vassilkov (1966)[3]
-Boletus edulis var. pinicola Vittadini[4]
-Dyctyopus edulis var fuscoruber Forguignon in Quelet (1889)</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus pinophilus Pilát &amp; Dermek (1973)
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins_de_montagne</t>
+          <t>Cèpe_des_pins_de_montagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cèpe des pins - nom normalisé
-Cèpe acajou
-Cèpe des pins de montagne[5]
-Ambiguïté du nom
-Il existe une ambiguïté et une confusion quant à l'espèce réellement désignée par le terme de "Cèpe des pins". L'espèce à laquelle revient ce nom est uniquement celle-ci, Boletus pinophilus. Pour une explication plus ample sur l'ambiguïté du nom, voir Cèpe des pins (homonymie).
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus pinicola (Vitt.) Venturi (1835)
+Boletus edulis f. pinicola (Vittad.) Vassilkov (1966)
+Boletus edulis var. pinicola Vittadini
+Dyctyopus edulis var fuscoruber Forguignon in Quelet (1889)</t>
         </is>
       </c>
     </row>
@@ -566,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins_de_montagne</t>
+          <t>Cèpe_des_pins_de_montagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +598,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Classification phylogénétique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus pinophilus, autrefois considéré comme une variété de Boletus edulis (var. pinicola) est maintenant une espèce à part entière et fait partie du clade Boletus rex-veris, qui est un des cinq clades de Boletus edulis sensu lato.
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cèpe des pins - nom normalisé
+Cèpe acajou
+Cèpe des pins de montagne</t>
         </is>
       </c>
     </row>
@@ -597,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A8pe_des_pins_de_montagne</t>
+          <t>Cèpe_des_pins_de_montagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +632,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ambiguïté du nom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une ambiguïté et une confusion quant à l'espèce réellement désignée par le terme de "Cèpe des pins". L'espèce à laquelle revient ce nom est uniquement celle-ci, Boletus pinophilus. Pour une explication plus ample sur l'ambiguïté du nom, voir Cèpe des pins (homonymie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cèpe_des_pins_de_montagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_des_pins_de_montagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus pinophilus, autrefois considéré comme une variété de Boletus edulis (var. pinicola) est maintenant une espèce à part entière et fait partie du clade Boletus rex-veris, qui est un des cinq clades de Boletus edulis sensu lato.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cèpe_des_pins_de_montagne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_des_pins_de_montagne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cèpe des pins est un bolet. Les bolets sont des champignons dont l’hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Boletus pinophilus sont les suivantes :
 Son chapeau mesure de 4 à 25 cm de diamètre. Il est de couleur bordeaux, brun rouge, brun roux, brun ochracé à acajou, roux marron, acajou, souvent assez uniforme, mais prenant facilement des teintes plus claires avec l'humidité ou l'âge, marron clair, sans jaune. Sa surface est souvent ridée, parfois poudrée de blanc (pruine) sur le bord, chez les jeunes spécimens au moins. Sa marge est lisse, parfois lobée.
@@ -628,8 +720,43 @@
 			Pores blancs devenant jaunes puis olivâtres.
 			Stipe orné d'un réseau blanchâtre.
 			Chair blanche immuable.
-Caractéristiques microscopiques
-Ses spores mesurent 13 à 16,6 μm x 4,6 à 6 μm, elles sont allongées-fusoïdes[6]. Le revêtement piléique est composé d'hyphes plus ou moins longuement articulées ou de chaînes de cylindrocystes à éléments terminaux mesurant jusqu'à 22 μm[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cèpe_des_pins_de_montagne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A8pe_des_pins_de_montagne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 13 à 16,6 μm x 4,6 à 6 μm, elles sont allongées-fusoïdes. Le revêtement piléique est composé d'hyphes plus ou moins longuement articulées ou de chaînes de cylindrocystes à éléments terminaux mesurant jusqu'à 22 μm.
 </t>
         </is>
       </c>
